--- a/database/tmp_import_question.xlsx
+++ b/database/tmp_import_question.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\quiz\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>question</t>
   </si>
@@ -47,20 +47,26 @@
     <t>level</t>
   </si>
   <si>
-    <t>Làm phép tính 9 x 4 = ?</t>
-  </si>
-  <si>
-    <t>Còn lại bao nhiêu cái kẹo khi chia 10 cái cho 4 bạn, mỗi bạn 2 cái kẹo</t>
-  </si>
-  <si>
-    <t>Bạn Mít được 4 bạn cùng bàn mỗi người cho 2 cái kẹo, hỏi bạn Mít có bao nhiêu cái</t>
+    <t xml:space="preserve">Số liền sau của 97 là </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số liền sau của 96 là </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số liền sau của 99 là </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số liền sau của 90 là </t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +81,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -124,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +145,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,44 +426,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -458,22 +475,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="G2">
+        <v>98</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -481,45 +501,51 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F3">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="G3">
+        <v>97</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -527,202 +553,21 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>40</v>
-      </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13">
+        <v>91</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
     </row>

--- a/database/tmp_import_question.xlsx
+++ b/database/tmp_import_question.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\quiz\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>question</t>
   </si>
@@ -59,14 +59,68 @@
     <t xml:space="preserve">Số liền sau của 90 là </t>
   </si>
   <si>
-    <t>type</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>loại câu trả lời chọn 1 đáp án</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Loại câu trả lời chọn nhiều đáp án</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Loại câu trả lời điền giá trị</t>
+  </si>
+  <si>
+    <t>450, 328</t>
+  </si>
+  <si>
+    <t>540, 315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444, 900       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">180, 855       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">style </t>
+  </si>
+  <si>
+    <t>Điền vào chỗ chấm b2</t>
+  </si>
+  <si>
+    <t>Các số chia hết cho cả 5 và 9 là? (Đúng ghi Đ – Sai ghi S) b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn đáp án đúng: </t>
+  </si>
+  <si>
+    <t>5:1 = 4</t>
+  </si>
+  <si>
+    <t>4:2 = 2</t>
+  </si>
+  <si>
+    <t>1:1 = 1</t>
+  </si>
+  <si>
+    <t>3:3 = 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +137,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF515050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -136,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,7 +211,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,22 +506,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="74.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="9.140625" style="5"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="31" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -449,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -467,107 +554,347 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="H2" s="4">
         <v>98</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
+      <c r="H3" s="4">
         <v>97</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
+      <c r="H4" s="4">
         <v>100</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="H5" s="4">
+        <v>91</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>2</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>91</v>
-      </c>
-      <c r="H5">
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="4">
         <v>0</v>
       </c>
     </row>
